--- a/model_exports/labels/2.0_True_False_0_1.xlsx
+++ b/model_exports/labels/2.0_True_False_0_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C733"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,37 +453,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-793443964900737024</t>
+          <t>t-536414184204800001</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-495123711071387649</t>
+          <t>t-536957598252417024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-508961106849574912</t>
+          <t>t-729342722264420352</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-509046359354511360</t>
+          <t>t-1025792018793021440</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,11 +505,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-509083951655174144</t>
+          <t>t-509432328561885184</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,11 +518,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-509100730960314368</t>
+          <t>t-517204809452380161</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -531,37 +531,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-509131102796414976</t>
+          <t>t-629748063494537216</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-509142523403862017</t>
+          <t>t-629757802915848193</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-509208349511262208</t>
+          <t>t-690710236638777344</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -570,24 +570,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-509223264921878528</t>
+          <t>t-690724653006921728</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-509224131880300544</t>
+          <t>t-833214575512150018</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-517204809452380161</t>
+          <t>t-887418286014570496</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-599446630732079104</t>
+          <t>t-1016827484665499650</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,11 +622,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-601392774370340865</t>
+          <t>t-1016832637904695296</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-638852256234913792</t>
+          <t>t-501433457286053889</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,46 +648,46 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-648290405872627712</t>
+          <t>t-501490224640573440</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-681917420068564992</t>
+          <t>t-573511311906115584</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-682618491283857408</t>
+          <t>t-573530576818434048</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-683960479224586240</t>
+          <t>t-601392774370340865</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,11 +700,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-684033292694327296</t>
+          <t>t-605091889558261760</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -713,33 +713,33 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-684082364117585920</t>
+          <t>t-605138894867161088</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-684154242035089408</t>
+          <t>t-605351836636311552</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-686267623462408192</t>
+          <t>t-648290405872627712</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,7 +752,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-693851248634810368</t>
+          <t>t-681917420068564992</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-701855843747241986</t>
+          <t>t-682618491283857408</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,20 +778,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-767329938500308992</t>
+          <t>t-707911328145477632</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-815615714082095105</t>
+          <t>t-707931200627875840</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,33 +804,33 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-816012131535613952</t>
+          <t>t-708036809603698689</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-816043428630839296</t>
+          <t>t-708038329514790912</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-816046695377158145</t>
+          <t>t-708041345638776832</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,20 +843,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-816056629867188225</t>
+          <t>t-708249950530961408</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-816367923770118149</t>
+          <t>t-708273072424554497</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-816380623434592257</t>
+          <t>t-708363296160747520</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-854007994534813696</t>
+          <t>t-708384601509601280</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -895,33 +895,33 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-867771334083923968</t>
+          <t>t-708389352393539585</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-876890893143298050</t>
+          <t>t-708444180087971840</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-876899745704415232</t>
+          <t>t-709190294621835264</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,33 +934,33 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-876909191105048577</t>
+          <t>t-709228058117480449</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-876910840670302209</t>
+          <t>t-709405662791372802</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-876983597760172032</t>
+          <t>t-709892861110657024</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -973,33 +973,33 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-877064271393370112</t>
+          <t>t-710265095104946176</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-877647799629733893</t>
+          <t>t-756508260925075456</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-877649383340298240</t>
+          <t>t-854007994534813696</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,11 +1012,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-878107705168334848</t>
+          <t>t-968259732858376192</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-878263651773407233</t>
+          <t>t-982113517636435969</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,20 +1038,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-878265674975461376</t>
+          <t>t-982126921570893825</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-878542338414362624</t>
+          <t>t-1006110887999045632</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,7 +1064,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-880275227367821312</t>
+          <t>t-1006321460951027717</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,20 +1077,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-893450286144131072</t>
+          <t>t-1024388985282383872</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-900539002423562240</t>
+          <t>t-548492147645640704</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,33 +1103,33 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-900561270843334662</t>
+          <t>t-975411428663345152</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-900690069668933632</t>
+          <t>t-507610683022643200</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-902187406123835394</t>
+          <t>t-754609055683915776</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,7 +1142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-902225607563644928</t>
+          <t>t-778024515909537792</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,33 +1155,33 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-910935192742842370</t>
+          <t>t-827438952974004224</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-911026776717103105</t>
+          <t>t-1012224879310057472</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-918248158253273089</t>
+          <t>t-503508088964800513</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,20 +1194,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-973668678867746816</t>
+          <t>t-503608708635844608</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-973683665661198337</t>
+          <t>t-730338940872445952</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,33 +1220,33 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1022084644039258112</t>
+          <t>t-731342823132274688</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1030587514820669441</t>
+          <t>t-746432967740882945</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1030625730407874563</t>
+          <t>t-801687875939078144</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,7 +1259,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1031145618503360513</t>
+          <t>t-992796128654524417</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,11 +1272,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-1031309689848508416</t>
+          <t>t-1017282491193782272</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1285,24 +1285,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-499691919128018944</t>
+          <t>t-1061557072670670850</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-875896081233567744</t>
+          <t>t-1061559942140780544</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-754609055683915776</t>
+          <t>t-506695122298212352</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-827438952974004224</t>
+          <t>t-757940960609173505</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,20 +1337,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-922536592429993985</t>
+          <t>t-770776256669372416</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-533166195508117505</t>
+          <t>t-858084101320056832</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,20 +1363,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-606774570255654912</t>
+          <t>t-858490544007327747</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-641417749898522624</t>
+          <t>t-885277243991314432</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-685243474623336449</t>
+          <t>t-885292685086646272</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,24 +1402,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-687924478219685888</t>
+          <t>t-979396065278427139</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-687934498701455360</t>
+          <t>t-745031440031694848</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1428,7 +1428,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-746432967740882945</t>
+          <t>t-767098705790906368</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,20 +1441,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-835997827369156608</t>
+          <t>t-773307883878363136</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-893144326049419264</t>
+          <t>t-876870634885844994</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-928952366598037506</t>
+          <t>t-876897987485630464</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-958555465675362304</t>
+          <t>t-876995236253376512</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-1017282491193782272</t>
+          <t>t-1016140956322713601</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,76 +1506,76 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1047054739547013120</t>
+          <t>t-751267650043387906</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-1047068713986547712</t>
+          <t>t-585851418843615232</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-1047079117244399617</t>
+          <t>t-623339394989166593</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-1047083573738500096</t>
+          <t>t-670312803173986304</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-1061557072670670850</t>
+          <t>t-697497279213625344</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-1061559942140780544</t>
+          <t>t-697558252012355585</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1584,20 +1584,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-538858836992331776</t>
+          <t>t-781902339066191873</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-610241505777856512</t>
+          <t>t-836993229967015937</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,11 +1610,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-610629417715412992</t>
+          <t>t-837317730147713024</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-612750086443917313</t>
+          <t>t-868226298719633408</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-847556586600095745</t>
+          <t>t-878362748232622081</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,24 +1649,24 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-1006061673487138817</t>
+          <t>t-966707160049766400</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-717023541078728704</t>
+          <t>t-967596306297483265</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,11 +1675,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-903082857492566018</t>
+          <t>t-967763105525764097</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-908760840886767616</t>
+          <t>t-967806729865060352</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,24 +1701,24 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-917079758076370946</t>
+          <t>t-967827685333454849</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1016140956322713601</t>
+          <t>t-968065709459750912</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1727,33 +1727,33 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-548325093256884224</t>
+          <t>t-968790557077262336</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-764358428777078784</t>
+          <t>t-1000477141224558594</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-519554920140124160</t>
+          <t>t-950852460532428800</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,33 +1766,33 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-623339394989166593</t>
+          <t>t-540815358715002880</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-626070342885249024</t>
+          <t>t-552005598615597057</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-641288611472654336</t>
+          <t>t-552017511018168320</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,24 +1805,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-836993229967015937</t>
+          <t>t-552021252442169344</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-837317730147713024</t>
+          <t>t-552065463610802176</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-840253641885913088</t>
+          <t>t-552468777791524864</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,20 +1844,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1000477141224558594</t>
+          <t>t-630358013853990912</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-681802042885697536</t>
+          <t>t-687545498014760960</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,11 +1870,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-682128192019234816</t>
+          <t>t-887680971797131264</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-682147581405859841</t>
+          <t>t-887683274591662080</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,11 +1896,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-682223092198936576</t>
+          <t>t-887690953800253442</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1909,33 +1909,33 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-682287065824931840</t>
+          <t>t-887715764404449281</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-682459381347254272</t>
+          <t>t-887751540173414404</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-682632199527641089</t>
+          <t>t-887923666507489280</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,11 +1948,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-682755737790099456</t>
+          <t>t-887928668626055169</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-682908634020470785</t>
+          <t>t-887976731767918592</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-682915879026339840</t>
+          <t>t-888083621801844737</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,20 +1987,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-683017640638582784</t>
+          <t>t-919827029243187200</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-683036658942513152</t>
+          <t>t-919919408797151233</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-683077568287866880</t>
+          <t>t-919933275422027776</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,20 +2026,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-683235960692314112</t>
+          <t>t-919961378433224704</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-683258563628777472</t>
+          <t>t-920296060211400704</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,7 +2052,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-683386799184543745</t>
+          <t>t-682141165802631168</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,20 +2065,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-683399457254326272</t>
+          <t>t-671527403521462276</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-683602691965206528</t>
+          <t>t-833840054363619329</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,11 +2091,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-683628764622905344</t>
+          <t>t-559857374312529920</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-683644184683753472</t>
+          <t>t-559902019893202944</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,33 +2117,33 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-683649428587155456</t>
+          <t>t-782023965489238017</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-683773064040050688</t>
+          <t>t-758769139905204224</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-683968472968228864</t>
+          <t>t-952138958368051200</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,11 +2156,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-683979793273065473</t>
+          <t>t-952754172880863232</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,37 +2169,37 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-684007082555748352</t>
+          <t>t-624161549528096768</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-684323489562558465</t>
+          <t>t-657221044642684928</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-685408547975331840</t>
+          <t>t-876969646846603270</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-950852460532428800</t>
+          <t>t-879367414802153472</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-953648628647706624</t>
+          <t>t-985892254756884480</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-973959709605662721</t>
+          <t>t-992180383449014272</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,33 +2247,33 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-973962375287246848</t>
+          <t>t-992184677086777345</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-973995114065465345</t>
+          <t>t-1062308914354642944</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-974310620169474048</t>
+          <t>t-602966767602831362</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,7 +2286,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-843394427347320833</t>
+          <t>t-602969826642898945</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,20 +2299,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-552005598615597057</t>
+          <t>t-603005702697713664</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-552017511018168320</t>
+          <t>t-604735735154012160</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,24 +2325,24 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-552021252442169344</t>
+          <t>t-611182304984109057</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-552065463610802176</t>
+          <t>t-658242856386187264</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -2351,20 +2351,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-552468777791524864</t>
+          <t>t-590950091256631296</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-926892709188702208</t>
+          <t>t-737748026983354372</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,20 +2377,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-540871484869472256</t>
+          <t>t-737752255571595264</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-918095751158300672</t>
+          <t>t-1040717985516859392</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2403,33 +2403,33 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-918096410427486208</t>
+          <t>t-907490044335636480</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-918845060900380672</t>
+          <t>t-1031211148908081152</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-923100909521068032</t>
+          <t>t-733769545261944833</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,7 +2442,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-1020278662699134976</t>
+          <t>t-766291748704423936</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-552038248218767360</t>
+          <t>t-791266893470568448</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-552266751304798209</t>
+          <t>t-791268686447378433</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-546995440701296643</t>
+          <t>t-826760200636002305</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,24 +2494,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-760723550810628097</t>
+          <t>t-904717770524372993</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-952138958368051200</t>
+          <t>t-906974272832376832</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-952754172880863232</t>
+          <t>t-917499339278254080</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,7 +2533,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-611996097129619456</t>
+          <t>t-973190028435353600</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,7 +2546,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-752638920505131008</t>
+          <t>t-979726568175165440</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,33 +2559,33 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-611182304984109057</t>
+          <t>t-987005505154535425</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-707957967094685696</t>
+          <t>t-621875663901863937</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-603598228022501376</t>
+          <t>t-756982430985166848</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,24 +2598,24 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-986530301030682624</t>
+          <t>t-756983738035077120</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-1040717985516859392</t>
+          <t>t-757172169029804034</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -2624,7 +2624,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-1060963338337902593</t>
+          <t>t-1036699556560470016</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-594613009575579649</t>
+          <t>t-834484332148297728</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,20 +2650,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-618586257753374720</t>
+          <t>t-784477844240011265</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-733769545261944833</t>
+          <t>t-806138760937271296</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,11 +2676,11 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-766291748704423936</t>
+          <t>t-859838431719030785</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -2689,33 +2689,33 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-791266893470568448</t>
+          <t>t-962803499766513664</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-791268686447378433</t>
+          <t>t-1003953189820010496</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-870660332800397312</t>
+          <t>t-671936284651196416</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,7 +2728,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-870684149173977089</t>
+          <t>t-903173716451909632</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,50 +2741,50 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-886294080040423425</t>
+          <t>t-694715871097278464</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-906974272832376832</t>
+          <t>t-861649200160710656</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-948592886060380161</t>
+          <t>t-883046827251179521</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-961914631135617025</t>
+          <t>t-883048887786909698</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -2793,11 +2793,11 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-972059634101047296</t>
+          <t>t-883064523128791040</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-1036699556560470016</t>
+          <t>t-883077275679432704</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-859838431719030785</t>
+          <t>t-840282206979444737</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,33 +2832,33 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-962803499766513664</t>
+          <t>t-840289139450925056</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-992484226795823105</t>
+          <t>t-860527262709493760</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-858172777098072064</t>
+          <t>t-889517070559334400</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,7 +2871,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-858203574500818944</t>
+          <t>t-992428512744222721</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,33 +2884,33 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-858267644507631616</t>
+          <t>t-1034302397882015745</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-858374877706932224</t>
+          <t>t-1034317413309919232</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-858419995453292545</t>
+          <t>t-1034572709651533825</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,20 +2923,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1022049211108483072</t>
+          <t>t-1034867901902319618</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-1022100736476360704</t>
+          <t>t-1034875857125425152</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,20 +2949,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-840282206979444737</t>
+          <t>t-1034886406957662208</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-840289139450925056</t>
+          <t>t-1034922534326738944</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,20 +2975,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-743015826601697281</t>
+          <t>t-1035345459290746880</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-872405308236337153</t>
+          <t>t-1035480584934514690</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-876214781744750592</t>
+          <t>t-1035555438882897926</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,20 +3014,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-946987966475448325</t>
+          <t>t-1036020306895413248</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-1005457960703754240</t>
+          <t>t-1036935289485316096</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,11 +3040,11 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-829201577370075136</t>
+          <t>t-1037072521940623360</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -3053,11 +3053,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-829349939947925504</t>
+          <t>t-1037363401314455553</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -3066,24 +3066,24 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-829364075721326592</t>
+          <t>t-1037404586812821505</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-829412936661815299</t>
+          <t>t-1037450313920393218</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -3092,11 +3092,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1034302397882015745</t>
+          <t>t-1037475943969898497</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1034317413309919232</t>
+          <t>t-1037727143038517248</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1034572709651533825</t>
+          <t>t-1037749001658032128</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,11 +3131,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1034867901902319618</t>
+          <t>t-1039228208804233216</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -3144,11 +3144,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1034875857125425152</t>
+          <t>t-1042035586717110280</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1034886406957662208</t>
+          <t>t-892821066799820805</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,24 +3170,24 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1034922534326738944</t>
+          <t>t-910451192064614401</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1035345459290746880</t>
+          <t>t-692385146725646340</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -3196,46 +3196,46 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1035480584934514690</t>
+          <t>t-997483790145589248</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1035555438882897926</t>
+          <t>t-997521947297710081</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1036020306895413248</t>
+          <t>t-662196453281038336</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1036935289485316096</t>
+          <t>t-715206020902084609</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,89 +3248,89 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-1037072521940623360</t>
+          <t>t-715208550243557376</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1037363401314455553</t>
+          <t>t-715210823002562560</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1037404586812821505</t>
+          <t>t-715215011178803200</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-1037450313920393218</t>
+          <t>t-737800453916897280</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1037475943969898497</t>
+          <t>t-746718356405882880</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-1037727143038517248</t>
+          <t>t-764530848079155200</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-1037749001658032128</t>
+          <t>t-764927216257949696</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -3339,11 +3339,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1039228208804233216</t>
+          <t>t-817334752848056320</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -3352,50 +3352,50 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-1050435927066198018</t>
+          <t>t-817481338974507010</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-507905858265960448</t>
+          <t>t-1009549219240308737</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-911670405483651072</t>
+          <t>t-1036976718718881793</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-997483790145589248</t>
+          <t>t-593171698846830592</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -3404,11 +3404,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-997521947297710081</t>
+          <t>t-611619605899939841</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-530194842861580288</t>
+          <t>t-620793830413959168</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,33 +3430,33 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-662196453281038336</t>
+          <t>t-643122505524322304</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-715206020902084609</t>
+          <t>t-646027426347155456</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-715208550243557376</t>
+          <t>t-750893641632063488</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,11 +3469,11 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-715210823002562560</t>
+          <t>t-891394338445553666</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3482,20 +3482,20 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-715215011178803200</t>
+          <t>t-891401235391066112</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-737800453916897280</t>
+          <t>t-891671460804259840</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,7 +3508,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-746718356405882880</t>
+          <t>t-891695041609162754</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,50 +3521,50 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-815857432882769920</t>
+          <t>t-892069950281711617</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-816077181575106560</t>
+          <t>t-892901315642146816</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-820042974197334018</t>
+          <t>t-1008536493269237760</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-913139045009633280</t>
+          <t>t-619624637685755904</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -3573,46 +3573,46 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-913178067195088902</t>
+          <t>t-796087988140834817</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-913438297258708992</t>
+          <t>t-580289963599765504</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-925358435398488064</t>
+          <t>t-581999689727389696</t>
         </is>
       </c>
       <c r="B244" t="n">
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-998567520113225733</t>
+          <t>t-651743798721122304</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,20 +3625,20 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-1014570924681687042</t>
+          <t>t-673837939248472064</t>
         </is>
       </c>
       <c r="B246" t="n">
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-1039643454140231684</t>
+          <t>t-681483416165048320</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,7 +3651,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-1039968877537456128</t>
+          <t>t-705116084911763456</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,24 +3664,24 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-1050012662120235008</t>
+          <t>t-707575261483687937</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-533407970244456448</t>
+          <t>t-726061174727532544</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -3690,20 +3690,20 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-561309176475824128</t>
+          <t>t-745683270160027648</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-593171698846830592</t>
+          <t>t-767994872578056192</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,20 +3716,20 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-628272138890252288</t>
+          <t>t-832931106873819136</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-750893641632063488</t>
+          <t>t-841637693608071170</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,7 +3742,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-760920272639852545</t>
+          <t>t-894936422980964352</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,37 +3755,37 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-760967260039106560</t>
+          <t>t-903533073358352385</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-760972532421984261</t>
+          <t>t-903589529143189504</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-760978989359833088</t>
+          <t>t-936972059766415360</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3794,46 +3794,46 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-761017815637696513</t>
+          <t>t-968863674306834432</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-761048712214818816</t>
+          <t>t-1061999891080232961</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-761049587066867712</t>
+          <t>t-1063070010954932224</t>
         </is>
       </c>
       <c r="B261" t="n">
         <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-761050328493985794</t>
+          <t>t-1063412203389370368</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,7 +3846,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-761057847262142465</t>
+          <t>t-1063455159370637313</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,33 +3859,33 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-897457481550618624</t>
+          <t>t-1063463128409800704</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-1006674770983817217</t>
+          <t>t-1063508201319079936</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-1042832069506871296</t>
+          <t>t-1063552348386140165</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,20 +3898,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-619624637685755904</t>
+          <t>t-741861803148214272</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-683790340701073408</t>
+          <t>t-859608993752379392</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,11 +3924,11 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-761355220198756352</t>
+          <t>t-646786233809539072</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -3937,20 +3937,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-761372714925891586</t>
+          <t>t-772514094360305664</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-796087988140834817</t>
+          <t>t-833086724096028673</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,7 +3963,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-903370281829498882</t>
+          <t>t-836430214368481288</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,46 +3976,46 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-638674545726066688</t>
+          <t>t-1026494793466048518</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-638724428944150528</t>
+          <t>t-549835920762220544</t>
         </is>
       </c>
       <c r="B274" t="n">
         <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-639699321500364800</t>
+          <t>t-570559495811813376</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-639804238848237568</t>
+          <t>t-570650767369109504</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,11 +4028,11 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-647384012202356736</t>
+          <t>t-570656230466838528</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-648159002224914436</t>
+          <t>t-570659758706962432</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,7 +4054,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-648232794137718784</t>
+          <t>t-570724512095969280</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,11 +4067,11 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-648426685910618112</t>
+          <t>t-570966152807100416</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -4080,7 +4080,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-726061174727532544</t>
+          <t>t-570990183648243712</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,63 +4093,63 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-739781293882347520</t>
+          <t>t-571060362520502272</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-757849369496301569</t>
+          <t>t-571231922355097600</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-758572772490637312</t>
+          <t>t-571320451407974400</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-832931106873819136</t>
+          <t>t-571330597400018944</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-913153226706472965</t>
+          <t>t-571345826099941376</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -4158,7 +4158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-957285309796044800</t>
+          <t>t-571920017329156096</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,24 +4171,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-957305309328039936</t>
+          <t>t-572029056453115906</t>
         </is>
       </c>
       <c r="B288" t="n">
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-957621820626276353</t>
+          <t>t-573087826360836097</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -4197,7 +4197,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-958690487875055616</t>
+          <t>t-663721804310122496</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,7 +4210,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-968863674306834432</t>
+          <t>t-669588910935285760</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,24 +4223,24 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-1003317489990848512</t>
+          <t>t-669601333348073473</t>
         </is>
       </c>
       <c r="B292" t="n">
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-1003350897521459202</t>
+          <t>t-698062078922375169</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -4249,24 +4249,24 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-1003359993201025024</t>
+          <t>t-727758683510329344</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-1003379549600731139</t>
+          <t>t-727889856274247680</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -4275,20 +4275,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-1026228357996969984</t>
+          <t>t-578199507671904256</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-1039508390869786629</t>
+          <t>t-578943021716250624</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,7 +4301,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-1039553624345661440</t>
+          <t>t-581325099023892480</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-1039619721644191744</t>
+          <t>t-581326319130116096</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-1049984041888505856</t>
+          <t>t-581406863343779840</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,33 +4340,33 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-1051063984038776837</t>
+          <t>t-581587820248109056</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-1057289433236545538</t>
+          <t>t-755764875155083264</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-538818433920827392</t>
+          <t>t-610512692353310721</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,7 +4379,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-772514094360305664</t>
+          <t>t-610555659969409025</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,20 +4392,20 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-833086724096028673</t>
+          <t>t-791567733695606784</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-893162180492787716</t>
+          <t>t-772934103733788672</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,37 +4418,37 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-795702151049834496</t>
+          <t>t-772960588171403264</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-901071860456185856</t>
+          <t>t-773538620472979456</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-560425264807944193</t>
+          <t>t-773979956305100800</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -4457,20 +4457,20 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-791567733695606784</t>
+          <t>t-778893752471543808</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-628489671656517632</t>
+          <t>t-778933660334559232</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,7 +4483,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-736272987683426305</t>
+          <t>t-862378347007025154</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,11 +4496,11 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-880769643060842496</t>
+          <t>t-884449137407791104</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-891969624929075201</t>
+          <t>t-885109132638003200</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,7 +4522,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-892105609071349760</t>
+          <t>t-885140571232374784</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,7 +4535,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-892129259686428672</t>
+          <t>t-885166687825350662</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,7 +4548,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-957965473316069376</t>
+          <t>t-885188751936417793</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,7 +4561,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-968874912806068224</t>
+          <t>t-992126872036233224</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,11 +4574,11 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-567287806645395457</t>
+          <t>t-993085432052273153</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -4587,20 +4587,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-648439576441171968</t>
+          <t>t-571264964683436033</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-649621017187512320</t>
+          <t>t-615316042294890496</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,11 +4613,11 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-783130241195585536</t>
+          <t>t-645024639639535616</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
@@ -4626,24 +4626,24 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-783135151601704960</t>
+          <t>t-651859489713291264</t>
         </is>
       </c>
       <c r="B323" t="n">
         <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-798356661148655616</t>
+          <t>t-652540388272553984</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -4652,24 +4652,24 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-798650812511588352</t>
+          <t>t-652542102539235329</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-892449776129777665</t>
+          <t>t-659011315088781312</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4678,11 +4678,11 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-892462041277091840</t>
+          <t>t-659473740955189248</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -4691,11 +4691,11 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-892471980875808773</t>
+          <t>t-787849177581649920</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4704,50 +4704,50 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-892472490483646466</t>
+          <t>t-897976904019476481</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-892606487482089472</t>
+          <t>t-924289234399322112</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-892633367342088192</t>
+          <t>t-1042410099652919297</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-892700840817045504</t>
+          <t>t-925720058432811008</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -4756,33 +4756,33 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-892731725897281538</t>
+          <t>t-860196024056414208</t>
         </is>
       </c>
       <c r="B333" t="n">
         <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-900702851202207746</t>
+          <t>t-874804635327905792</t>
         </is>
       </c>
       <c r="B334" t="n">
         <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-906773843066441728</t>
+          <t>t-821077876112035840</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,20 +4795,20 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-906922961621454848</t>
+          <t>t-821090113476325376</t>
         </is>
       </c>
       <c r="B336" t="n">
         <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-906981528483364865</t>
+          <t>t-822759706078969856</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,24 +4821,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-906982446905876480</t>
+          <t>t-822817083591446532</t>
         </is>
       </c>
       <c r="B338" t="n">
         <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-572732322178572288</t>
+          <t>t-609930400341725185</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -4847,37 +4847,37 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-572748274618277888</t>
+          <t>t-609937116462604289</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-572762505111580673</t>
+          <t>t-724222646435508224</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-573486943880638464</t>
+          <t>t-766980130283610112</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4886,11 +4886,11 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-1012441483654332417</t>
+          <t>t-786005533685710849</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -4899,20 +4899,20 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-1033036271491461120</t>
+          <t>t-848618580681912320</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-579030352271917056</t>
+          <t>t-848657153367953411</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,7 +4925,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-579089809991331841</t>
+          <t>t-848877245439594496</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,24 +4938,24 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-822759706078969856</t>
+          <t>t-851578277311373312</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-822817083591446532</t>
+          <t>t-860258475883937792</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-837738761547091968</t>
+          <t>t-880307230364508160</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,20 +4977,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-601584910428729344</t>
+          <t>t-992231007083421698</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-724222646435508224</t>
+          <t>t-992892560405250048</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,7 +5003,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-766980130283610112</t>
+          <t>t-1028993321757077505</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,20 +5016,20 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-851578277311373312</t>
+          <t>t-607899372177747968</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-910191038052077569</t>
+          <t>t-914224756555055104</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,11 +5042,11 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-992231007083421698</t>
+          <t>t-629437596280750080</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -5055,7 +5055,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-992892560405250048</t>
+          <t>t-680032445673148416</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,7 +5068,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-622598644009668608</t>
+          <t>t-643571264011898881</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,11 +5081,11 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-634366408906768384</t>
+          <t>t-756001538783326208</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-1055172080499515392</t>
+          <t>t-756128433025843200</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,7 +5107,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-1055204302220943368</t>
+          <t>t-756153001300156416</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,7 +5120,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-646419866795118592</t>
+          <t>t-756172674531942400</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,7 +5133,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-895489338364055553</t>
+          <t>t-981921278876684288</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,7 +5146,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-655890642334257152</t>
+          <t>t-983744396364480512</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,24 +5159,24 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-678946767459618818</t>
+          <t>t-653702331221999616</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-679082878148341760</t>
+          <t>t-762366384747589634</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -5185,20 +5185,20 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-1027575306226475008</t>
+          <t>t-762414153185173504</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-661127792231321600</t>
+          <t>t-762454271832928257</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,24 +5211,24 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-677631116958896129</t>
+          <t>t-886426015374946304</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-794366500865982467</t>
+          <t>t-904587230177443840</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -5237,20 +5237,20 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-867110157813075968</t>
+          <t>t-905072243822264320</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-867380655289761792</t>
+          <t>t-905081971667296257</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,46 +5263,46 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-867711994765471750</t>
+          <t>t-905280030833614849</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-867724212827545601</t>
+          <t>t-667518003613818880</t>
         </is>
       </c>
       <c r="B373" t="n">
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-868084138674454528</t>
+          <t>t-910961880700559360</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-868161755167547394</t>
+          <t>t-922944953696899072</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,24 +5315,24 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-868563701057679360</t>
+          <t>t-922950403255341056</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-869251443236249600</t>
+          <t>t-922959565792083968</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -5341,7 +5341,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-869321042807988224</t>
+          <t>t-976481160363692032</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,24 +5354,24 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-869576732906532865</t>
+          <t>t-692348550416633857</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-679420394223345665</t>
+          <t>t-954775347962241025</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -5380,33 +5380,33 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-685125009120038913</t>
+          <t>t-954792612103442432</t>
         </is>
       </c>
       <c r="B381" t="n">
         <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-736405703838044160</t>
+          <t>t-954866409300987904</t>
         </is>
       </c>
       <c r="B382" t="n">
         <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-842138233173626880</t>
+          <t>t-931989476401926144</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,7 +5419,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-842141623454687232</t>
+          <t>t-749466819581411328</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5432,7 +5432,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-842494366820286465</t>
+          <t>t-1009997647032344576</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5445,7 +5445,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-846003285282697216</t>
+          <t>t-753754552936136704</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-859881873865973760</t>
+          <t>t-971386931857772544</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,7 +5471,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-859891336627048448</t>
+          <t>t-913112779548176384</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-859891655167664129</t>
+          <t>t-804685877838565376</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,59 +5497,59 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-744360846420107265</t>
+          <t>t-823317212446556161</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-749466819581411328</t>
+          <t>t-939854628749004801</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-751165986527674368</t>
+          <t>t-834760589746569216</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-751167208219406336</t>
+          <t>t-902559120888184833</t>
         </is>
       </c>
       <c r="B393" t="n">
         <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-1009997647032344576</t>
+          <t>t-903611928827674624</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,20 +5562,20 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-1011820273774006272</t>
+          <t>t-1034597062573211651</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-1012308763422937089</t>
+          <t>t-1052284815779622917</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,20 +5588,20 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-1021764160093401089</t>
+          <t>t-1052565742183272454</t>
         </is>
       </c>
       <c r="B397" t="n">
         <v>1</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-1022188431483387905</t>
+          <t>t-1052712831517450241</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,11 +5614,11 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-1022188766964998144</t>
+          <t>t-905261367573090305</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -5627,7 +5627,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-1022577266117824514</t>
+          <t>t-961482044650930177</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,24 +5640,24 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-1023560708376748032</t>
+          <t>t-630691491766251520</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-1023767948165562368</t>
+          <t>t-673357306764140544</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -5666,72 +5666,72 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-1023931290045829121</t>
+          <t>t-850388688303529986</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-1024052229152669696</t>
+          <t>t-850540226590253057</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-843607928133292033</t>
+          <t>t-859937675339497473</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-946020250805514240</t>
+          <t>t-1019582623679696898</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-996559091932770305</t>
+          <t>t-1040961500553388033</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-1032899444918898688</t>
+          <t>t-513212132176175105</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,7 +5744,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-797647100565716992</t>
+          <t>t-520694218625675264</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -5757,11 +5757,11 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-797655572573143040</t>
+          <t>t-650288114116730880</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -5770,11 +5770,11 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-797814805772046336</t>
+          <t>t-953177789628407808</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -5783,11 +5783,11 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-850386711385260034</t>
+          <t>t-953520796361744384</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -5796,7 +5796,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-860879398387556352</t>
+          <t>t-984081755006259201</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,46 +5809,46 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-901254745888878592</t>
+          <t>t-1051696567651106816</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-880054371417018369</t>
+          <t>t-1051874637942947840</t>
         </is>
       </c>
       <c r="B415" t="n">
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-1034597062573211651</t>
+          <t>t-519900708980948992</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-1036704309923246081</t>
+          <t>t-869830075268685825</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-907371676148670465</t>
+          <t>t-1057306605287550976</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,98 +5874,98 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-499943241962487808</t>
+          <t>t-1057548272053698560</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-519240969838166016</t>
+          <t>t-642554131211755524</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-616316575658807296</t>
+          <t>t-738967171397758976</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-621860106481762304</t>
+          <t>t-951835055445413893</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-673357306764140544</t>
+          <t>t-955489372547305472</t>
         </is>
       </c>
       <c r="B423" t="n">
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-912723744195596289</t>
+          <t>t-955838886860787712</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-991032269405073408</t>
+          <t>t-956166896012939265</t>
         </is>
       </c>
       <c r="B425" t="n">
         <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-991077450368061440</t>
+          <t>t-580349296182198273</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,59 +5978,59 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-1016375311733284864</t>
+          <t>t-955738647663431681</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-1040961500553388033</t>
+          <t>t-955740876436844544</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-519370037812277248</t>
+          <t>t-956201264915910656</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-738823278840664064</t>
+          <t>t-629222720161640449</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-773146400129441792</t>
+          <t>t-809171890690523137</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,20 +6043,20 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-804010972331524096</t>
+          <t>t-884135398854635520</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-520483074711486464</t>
+          <t>t-884163532958441472</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,11 +6069,11 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-520499948983304192</t>
+          <t>t-884173621224239104</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
         <v>1</v>
@@ -6082,33 +6082,33 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-520513908759859200</t>
+          <t>t-884176826679136256</t>
         </is>
       </c>
       <c r="B435" t="n">
         <v>1</v>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-635444360306368512</t>
+          <t>t-884179431887167489</t>
         </is>
       </c>
       <c r="B436" t="n">
         <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-801681235982557184</t>
+          <t>t-884282035384320001</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,24 +6121,24 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-1057306605287550976</t>
+          <t>t-884290062598451200</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-1057548272053698560</t>
+          <t>t-884310032518664194</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -6147,24 +6147,24 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-522926675542421504</t>
+          <t>t-884325033430200320</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-722253771867181056</t>
+          <t>t-965524750264135680</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -6173,59 +6173,59 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-722818069320470529</t>
+          <t>t-966320851678318593</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-722837910135832577</t>
+          <t>t-967380419707535360</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-722884869374619648</t>
+          <t>t-993438566914101248</t>
         </is>
       </c>
       <c r="B444" t="n">
         <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-723517423786299392</t>
+          <t>t-1006399568249008128</t>
         </is>
       </c>
       <c r="B445" t="n">
         <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-832598430291730433</t>
+          <t>t-1006422910762995712</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,7 +6238,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-951835055445413893</t>
+          <t>t-1006422931839299584</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,11 +6251,11 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-529740815221153793</t>
+          <t>t-1006427045709180929</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -6264,33 +6264,33 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-595202959648096256</t>
+          <t>t-1006463635693203456</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-957544710825967616</t>
+          <t>t-1060529365962948608</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-534007858804056066</t>
+          <t>t-542716499115642881</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,7 +6303,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-538959622858883072</t>
+          <t>t-571286359673053184</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,11 +6316,11 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-653264904581984256</t>
+          <t>t-571344417145135105</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
         <v>1</v>
@@ -6329,7 +6329,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-653992755027386368</t>
+          <t>t-652334979544948736</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,24 +6342,24 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-702966418057330688</t>
+          <t>t-828957006832795648</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-703646494901927936</t>
+          <t>t-1018785093295464448</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -6368,20 +6368,20 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-806453539409162240</t>
+          <t>t-565566410605473792</t>
         </is>
       </c>
       <c r="B457" t="n">
         <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-806476961451216896</t>
+          <t>t-962370594363838464</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,7 +6394,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-894594064582094852</t>
+          <t>t-567369806647951362</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-1024937575906271233</t>
+          <t>t-567639888489500672</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-542716499115642881</t>
+          <t>t-707530442468098049</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,20 +6433,20 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-549859905231142914</t>
+          <t>t-707587020831518720</t>
         </is>
       </c>
       <c r="B462" t="n">
         <v>1</v>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-712209810511564800</t>
+          <t>t-670699425879191552</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,7 +6459,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-623733200322449409</t>
+          <t>t-869260706524397568</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,7 +6472,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-652334979544948736</t>
+          <t>t-970012076428193796</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6485,7 +6485,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-699529516008476673</t>
+          <t>t-1024201138277638144</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,7 +6498,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-712150675111727105</t>
+          <t>t-837336632667877376</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,11 +6511,11 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-823181666160144384</t>
+          <t>t-722410262058397697</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-831105804946247681</t>
+          <t>t-850396935152422913</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,37 +6537,37 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-958216984176427008</t>
+          <t>t-993886363249455104</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-1018785093295464448</t>
+          <t>t-737201412497649664</t>
         </is>
       </c>
       <c r="B471" t="n">
         <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-1057351782484115458</t>
+          <t>t-737877218718797825</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -6576,24 +6576,24 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-564785591561506817</t>
+          <t>t-738015379373625344</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-987343892633747456</t>
+          <t>t-738097397058932736</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
         <v>0</v>
@@ -6602,33 +6602,33 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-1048216558785449986</t>
+          <t>t-738253541266075652</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-570990543225950209</t>
+          <t>t-738419452778274816</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-670699425879191552</t>
+          <t>t-738714074352123904</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,46 +6641,46 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-580368693688999936</t>
+          <t>t-940281474259062789</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-720181387190530048</t>
+          <t>t-957917970390450177</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-861227956118716416</t>
+          <t>t-591541513768673280</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-760176410539528192</t>
+          <t>t-743905323543629825</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,33 +6693,33 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-850396935152422913</t>
+          <t>t-955539710214057984</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-581115572282376192</t>
+          <t>t-955816204769390593</t>
         </is>
       </c>
       <c r="B483" t="n">
         <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-940281474259062789</t>
+          <t>t-955871714914766849</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,72 +6732,72 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-962759977394991104</t>
+          <t>t-608880570362437632</t>
         </is>
       </c>
       <c r="B485" t="n">
         <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-587481090845179905</t>
+          <t>t-916986223478140928</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-737572670372339712</t>
+          <t>t-1021061872274018305</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-592904512131768321</t>
+          <t>t-615666964451606528</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-612970627083968512</t>
+          <t>t-615728570888003584</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-740222976763830272</t>
+          <t>t-1017675550318612480</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,24 +6810,24 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-740225059193819140</t>
+          <t>t-618340855657721856</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-740231562940297216</t>
+          <t>t-769927127475097602</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C492" t="n">
         <v>1</v>
@@ -6836,37 +6836,37 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-740233568627068929</t>
+          <t>t-884366275937521664</t>
         </is>
       </c>
       <c r="B493" t="n">
         <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-740511241383387136</t>
+          <t>t-619208680349765633</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-593397061376147456</t>
+          <t>t-899696948046856192</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C495" t="n">
         <v>0</v>
@@ -6875,33 +6875,33 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-877183876254269441</t>
+          <t>t-643112220348534784</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-877213422538158080</t>
+          <t>t-656425382145597440</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-955539710214057984</t>
+          <t>t-925429606693457921</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,11 +6914,11 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-955816204769390593</t>
+          <t>t-953295637679951872</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -6927,11 +6927,11 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-605693478799065088</t>
+          <t>t-953311292475011072</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -6940,24 +6940,24 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-605727874348384256</t>
+          <t>t-1004612435792232448</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-605802486604046337</t>
+          <t>t-695507166833184769</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
         <v>1</v>
@@ -6966,24 +6966,24 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-605842449722777601</t>
+          <t>t-698444957653278721</t>
         </is>
       </c>
       <c r="B503" t="n">
         <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-605899935117017088</t>
+          <t>t-950677684811640833</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
         <v>0</v>
@@ -6992,11 +6992,11 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-776349771640496128</t>
+          <t>t-835605594534981633</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C505" t="n">
         <v>1</v>
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-940349476509814789</t>
+          <t>t-835708598772727808</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,20 +7018,20 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-608880570362437632</t>
+          <t>t-952055483354972160</t>
         </is>
       </c>
       <c r="B507" t="n">
         <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-609461898141147136</t>
+          <t>t-715965241637470208</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,20 +7044,20 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-760350969154723840</t>
+          <t>t-728492484175745024</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-907976446286680066</t>
+          <t>t-736808558038265858</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,20 +7070,20 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-908018109373730816</t>
+          <t>t-956932857389309953</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-633703854580830208</t>
+          <t>t-957576777848717312</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,11 +7096,11 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-1018847155090542593</t>
+          <t>t-741709377703411712</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
         <v>1</v>
@@ -7109,37 +7109,37 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-661463139213565952</t>
+          <t>t-953202460994232320</t>
         </is>
       </c>
       <c r="B514" t="n">
         <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-664402656019005440</t>
+          <t>t-953212881809518592</t>
         </is>
       </c>
       <c r="B515" t="n">
         <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-723039191961985026</t>
+          <t>t-737669645872795648</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
         <v>1</v>
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-660041764225589248</t>
+          <t>t-957301618868965376</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,33 +7161,33 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-666556746308198401</t>
+          <t>t-1003603539539742720</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-1005827335977885696</t>
+          <t>t-955134939699310592</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-698444957653278721</t>
+          <t>t-737976116753883136</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,63 +7200,63 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-943797632639610881</t>
+          <t>t-738434736910176256</t>
         </is>
       </c>
       <c r="B521" t="n">
         <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-950677684811640833</t>
+          <t>t-956876178509516800</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-715202576552169472</t>
+          <t>t-1006391548668514309</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-734423204488445952</t>
+          <t>t-1006459221448318981</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-736808558038265858</t>
+          <t>t-745170424456052736</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525" t="n">
         <v>0</v>
@@ -7265,33 +7265,33 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-1062323949680373760</t>
+          <t>t-1002274254954647552</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-1003603539539742720</t>
+          <t>t-1002283218085863430</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-737703959993913344</t>
+          <t>t-740249467828482048</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,20 +7304,20 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-737753796202385408</t>
+          <t>t-740517137236647936</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-737755886211477504</t>
+          <t>t-743816866171326464</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,7 +7330,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-737784335567364096</t>
+          <t>t-748138953241464832</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,59 +7343,59 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-737884729626791936</t>
+          <t>t-754249103434022912</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-737979350088323072</t>
+          <t>t-775632377695600641</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-738250548865032192</t>
+          <t>t-775906484295204864</t>
         </is>
       </c>
       <c r="B534" t="n">
         <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-738751926372827136</t>
+          <t>t-803544744215384064</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-897405884489506816</t>
+          <t>t-834805481759789056</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,7 +7408,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-743816866171326464</t>
+          <t>t-844564313012670464</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,20 +7421,20 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-746386418465914880</t>
+          <t>t-852631745438601216</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-765679686244454400</t>
+          <t>t-991723021709832193</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,7 +7447,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-767290506456039424</t>
+          <t>t-855547644516732928</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,11 +7460,11 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-803544744215384064</t>
+          <t>t-855563578274754560</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
         <v>1</v>
@@ -7473,7 +7473,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-906552804285861889</t>
+          <t>t-859444598309097473</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,72 +7486,72 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-834314501134614528</t>
+          <t>t-859536182866317312</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-989189175357276160</t>
+          <t>t-861335479475634176</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-861335479475634176</t>
+          <t>t-862454112507580416</t>
         </is>
       </c>
       <c r="B545" t="n">
         <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-875285232924188672</t>
+          <t>t-946052034461040640</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-886643817893560320</t>
+          <t>t-991783836206936065</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-892499939137335296</t>
+          <t>t-875285232924188672</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7571,39 +7571,39 @@
         <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-953919004132986880</t>
+          <t>t-904852554470883329</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>0</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-938446444700237824</t>
+          <t>t-953919004132986880</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-1017566472292495360</t>
+          <t>t-938446444700237824</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,33 +7616,33 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-565143761131671552</t>
+          <t>t-1003312973887270917</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-904503608246362112</t>
+          <t>t-1003367321245798400</t>
         </is>
       </c>
       <c r="B554" t="n">
         <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-956368490293800960</t>
+          <t>t-1003369104735113216</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,7 +7655,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-956387965382610945</t>
+          <t>t-1003387066909167617</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,89 +7668,89 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-500549350234554368</t>
+          <t>t-1003393307597312000</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-549142719973445632</t>
+          <t>t-1003471542783823872</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-549750044099088384</t>
+          <t>t-1003531171559628800</t>
         </is>
       </c>
       <c r="B559" t="n">
         <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-549858427787153410</t>
+          <t>t-1003538396285947905</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-549861279825817601</t>
+          <t>t-1003544511115603973</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-557932086149918722</t>
+          <t>t-1003657726029975553</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-558466774392266752</t>
+          <t>t-1003966949058056192</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C563" t="n">
         <v>0</v>
@@ -7759,46 +7759,46 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-558501767688642560</t>
+          <t>t-949999091047477249</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-558892309320724482</t>
+          <t>t-977185697940623360</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-559263075183104000</t>
+          <t>t-1028077071480832000</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-559573400780156928</t>
+          <t>t-675498810152325120</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,11 +7811,11 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-629559315221737472</t>
+          <t>t-498746062224375809</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
         <v>1</v>
@@ -7824,7 +7824,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-643644357350948864</t>
+          <t>t-499104320717996032</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,50 +7837,50 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-645961089671405568</t>
+          <t>t-557932086149918722</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-648493309824925696</t>
+          <t>t-558466774392266752</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-666134929525178369</t>
+          <t>t-558501767688642560</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-666141677652848640</t>
+          <t>t-558892309320724482</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C573" t="n">
         <v>1</v>
@@ -7889,76 +7889,76 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-666146479564681217</t>
+          <t>t-559263075183104000</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-666155143696506880</t>
+          <t>t-559573400780156928</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-666158894691954689</t>
+          <t>t-664426560234110976</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-666536410439028736</t>
+          <t>t-674391856298385408</t>
         </is>
       </c>
       <c r="B577" t="n">
         <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-666602420022194177</t>
+          <t>t-674458539629219844</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-666664955077242881</t>
+          <t>t-711861360414433281</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C579" t="n">
         <v>1</v>
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-667221889505296388</t>
+          <t>t-711871478451417088</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,20 +7980,20 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-667625624421445632</t>
+          <t>t-711899328244113408</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-667976594137350144</t>
+          <t>t-712616490994892801</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,7 +8006,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-668796235004932096</t>
+          <t>t-814010823689408512</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,24 +8019,24 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-669882207800942593</t>
+          <t>t-854250685419986949</t>
         </is>
       </c>
       <c r="B584" t="n">
         <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-686071224749821953</t>
+          <t>t-854262837673246720</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
         <v>1</v>
@@ -8045,33 +8045,33 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-730666173340209152</t>
+          <t>t-925890248541794304</t>
         </is>
       </c>
       <c r="B586" t="n">
         <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-796846317632790528</t>
+          <t>t-935721877053505536</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-837558511772938241</t>
+          <t>t-950179252325859328</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,37 +8084,37 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-837704571640246272</t>
+          <t>t-950592034162774021</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-879622376966635521</t>
+          <t>t-950680110948007937</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-879625739317854209</t>
+          <t>t-951371471217090560</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C591" t="n">
         <v>1</v>
@@ -8123,11 +8123,11 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-879987948296568834</t>
+          <t>t-952033538005716993</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C592" t="n">
         <v>1</v>
@@ -8136,20 +8136,20 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-890567544695906304</t>
+          <t>t-952059671258447872</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-910155731134853120</t>
+          <t>t-952061652182028289</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,11 +8162,11 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-910165111620329472</t>
+          <t>t-952118349386850304</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
         <v>0</v>
@@ -8175,11 +8175,11 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-925890248541794304</t>
+          <t>t-953168990901284865</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
         <v>0</v>
@@ -8188,11 +8188,11 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-940565575226372102</t>
+          <t>t-1061409798053224448</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C597" t="n">
         <v>1</v>
@@ -8201,50 +8201,50 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-940637216757477377</t>
+          <t>t-1061535382406348800</t>
         </is>
       </c>
       <c r="B598" t="n">
         <v>1</v>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-970475324591915008</t>
+          <t>t-499804424827457538</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-1031392016255647744</t>
+          <t>t-499826521846972416</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-1061409798053224448</t>
+          <t>t-520490218210594817</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
         <v>1</v>
@@ -8253,20 +8253,20 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-1061535382406348800</t>
+          <t>t-650617914194694144</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-499804424827457538</t>
+          <t>t-732742567545077761</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,37 +8279,37 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-499826521846972416</t>
+          <t>t-732880819631460356</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-675258412049956865</t>
+          <t>t-732926405818753025</t>
         </is>
       </c>
       <c r="B605" t="n">
         <v>1</v>
       </c>
       <c r="C605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-820295860747542529</t>
+          <t>t-733131015837745153</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C606" t="n">
         <v>1</v>
@@ -8318,63 +8318,63 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-820993538456289280</t>
+          <t>t-733131209660735493</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-838217823608438784</t>
+          <t>t-733188233803128832</t>
         </is>
       </c>
       <c r="B608" t="n">
         <v>1</v>
       </c>
       <c r="C608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-857957864354086912</t>
+          <t>t-733201290151514113</t>
         </is>
       </c>
       <c r="B609" t="n">
         <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-857974981891719168</t>
+          <t>t-772650812623290373</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-914680114595602432</t>
+          <t>t-772781827224285184</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C611" t="n">
         <v>1</v>
@@ -8383,20 +8383,20 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-948796201708675072</t>
+          <t>t-773074057805737984</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-948886764244033537</t>
+          <t>t-806390063244410880</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-533912579676975104</t>
+          <t>t-806499176066453505</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,20 +8422,20 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-546829406539243520</t>
+          <t>t-832449416082579456</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-546846288554500096</t>
+          <t>t-869476060991152129</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,11 +8448,11 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-547603292180578305</t>
+          <t>t-922122902136172545</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C617" t="n">
         <v>1</v>
@@ -8461,33 +8461,33 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-547621920103862272</t>
+          <t>t-1015491573092528128</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-547636294059184128</t>
+          <t>t-503088287381082112</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-547637054578769920</t>
+          <t>t-536372518622212096</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-573022010348982272</t>
+          <t>t-536830333530804225</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-585340196557692928</t>
+          <t>t-536843974086897664</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-732021013433724928</t>
+          <t>t-561132509098827778</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,24 +8539,24 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-732494989838540800</t>
+          <t>t-574404715376603136</t>
         </is>
       </c>
       <c r="B624" t="n">
         <v>0</v>
       </c>
       <c r="C624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-732496065941798912</t>
+          <t>t-645905787584274433</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C625" t="n">
         <v>1</v>
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-749065341586726912</t>
+          <t>t-645928760433246209</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-756020759726727169</t>
+          <t>t-645952188204761088</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-794478910901624834</t>
+          <t>t-646249606892797957</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,50 +8604,50 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-794502218061750272</t>
+          <t>t-659219094017708032</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-807384780572459008</t>
+          <t>t-749065341586726912</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-836823983353909248</t>
+          <t>t-764804167068024832</t>
         </is>
       </c>
       <c r="B631" t="n">
         <v>0</v>
       </c>
       <c r="C631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-845583720950128640</t>
+          <t>t-799522784040849408</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C632" t="n">
         <v>1</v>
@@ -8656,33 +8656,33 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-922601399271112704</t>
+          <t>t-839825336552468480</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-976030387188137984</t>
+          <t>t-922601399271112704</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-976030855033319425</t>
+          <t>t-973099299910250497</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-976037405776990208</t>
+          <t>t-987647411144220672</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,20 +8708,20 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-529909835525939202</t>
+          <t>t-586217765666623488</t>
         </is>
       </c>
       <c r="B637" t="n">
         <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-756176490119647232</t>
+          <t>t-783478326421704704</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-934049646694998016</t>
+          <t>t-831995329318772736</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-712147646559879168</t>
+          <t>t-961643380684959749</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,11 +8760,11 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-802829831633108992</t>
+          <t>t-964120690952564737</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C641" t="n">
         <v>1</v>
@@ -8773,20 +8773,20 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-521700184376770560</t>
+          <t>t-550981789649735680</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-523431319012139009</t>
+          <t>t-592295516517502976</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-696949735576489985</t>
+          <t>t-795674749028462592</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,20 +8812,20 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-697001638108598272</t>
+          <t>t-817345259164221440</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-971295308981383168</t>
+          <t>t-936830929384828928</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,33 +8838,33 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-791933405902442497</t>
+          <t>t-936988511051292672</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-744191847128436736</t>
+          <t>t-694164443224154112</t>
         </is>
       </c>
       <c r="B648" t="n">
         <v>1</v>
       </c>
       <c r="C648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-777029515289563136</t>
+          <t>t-694343886626394113</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-777052253362335745</t>
+          <t>t-694445663426207744</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,11 +8890,11 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-829520315575177217</t>
+          <t>t-716900054133399553</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C651" t="n">
         <v>1</v>
@@ -8903,20 +8903,20 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-969977636670918656</t>
+          <t>t-836878014587744257</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-545394272619331584</t>
+          <t>t-532101195737735168</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,33 +8929,33 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-666809196977909760</t>
+          <t>t-532807839664730113</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-673010347008110593</t>
+          <t>t-534323907642142720</t>
         </is>
       </c>
       <c r="B655" t="n">
         <v>0</v>
       </c>
       <c r="C655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-697703131493355520</t>
+          <t>t-545394272619331584</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-698358832959873025</t>
+          <t>t-564676313139531776</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-757365069608923136</t>
+          <t>t-564736068306878464</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,33 +8994,33 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-833843048253681665</t>
+          <t>t-674974370180239360</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-834648744150892546</t>
+          <t>t-703773712068116482</t>
         </is>
       </c>
       <c r="B660" t="n">
         <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-922457591313137664</t>
+          <t>t-703855663269556224</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,20 +9033,20 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-922793297873010689</t>
+          <t>t-703940411761389571</t>
         </is>
       </c>
       <c r="B662" t="n">
         <v>1</v>
       </c>
       <c r="C662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-681630649879543808</t>
+          <t>t-757365069608923136</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-935391382331588609</t>
+          <t>t-557096941750743040</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-935397608851324931</t>
+          <t>t-924811540154540032</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,20 +9085,20 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-935407791757389824</t>
+          <t>t-924943312192073729</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-558414856756293634</t>
+          <t>t-562992622130954243</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-558416982677422081</t>
+          <t>t-670770027604213760</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-636337860757483520</t>
+          <t>t-540776934658277377</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,46 +9137,46 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-753418052503502848</t>
+          <t>t-702026039967531008</t>
         </is>
       </c>
       <c r="B670" t="n">
         <v>0</v>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-785106169677230080</t>
+          <t>t-745418927845453825</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-785108107227561984</t>
+          <t>t-776553403992252416</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-785110315553787904</t>
+          <t>t-776953291594866688</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-785111654228856832</t>
+          <t>t-776996787567464448</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-785153740848308225</t>
+          <t>t-777018247778631680</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-785284230573993984</t>
+          <t>t-777139839556648960</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-785337680368467968</t>
+          <t>t-777163982893223936</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,11 +9241,11 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-785343194607202304</t>
+          <t>t-787902147698450432</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,20 +9254,20 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-785389967123984386</t>
+          <t>t-787981561949921280</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-786190856218746880</t>
+          <t>t-820620984231174145</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,20 +9280,20 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-786491706409492481</t>
+          <t>t-567587172367077376</t>
         </is>
       </c>
       <c r="B681" t="n">
         <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-964122358905823232</t>
+          <t>t-599804476774436864</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,20 +9306,20 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-544020486527528960</t>
+          <t>t-814411097864159233</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-692022677649797120</t>
+          <t>t-814414402203983872</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-812248571802025984</t>
+          <t>t-814417111921479680</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,11 +9345,11 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-993018034288705536</t>
+          <t>t-814418757657296896</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" t="n">
         <v>1</v>
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-550867696435200000</t>
+          <t>t-814543705935736832</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,33 +9371,33 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-550870336418234368</t>
+          <t>t-950631505486737408</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-550963305326862336</t>
+          <t>t-950698684148142080</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-551099005388599297</t>
+          <t>t-1027038929319411712</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,11 +9410,11 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-551184362054500352</t>
+          <t>t-1027057881365901312</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C691" t="n">
         <v>1</v>
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-814411097864159233</t>
+          <t>t-1027179632922046467</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-814414402203983872</t>
+          <t>t-556107639625510912</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-814417111921479680</t>
+          <t>t-579496758595584000</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-814418757657296896</t>
+          <t>t-704474821959163905</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,24 +9475,24 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-814543705935736832</t>
+          <t>t-936534965277294597</t>
         </is>
       </c>
       <c r="B696" t="n">
         <v>1</v>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-950631505486737408</t>
+          <t>t-936606274795462656</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C697" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-950698684148142080</t>
+          <t>t-1016952321333497856</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,24 +9514,24 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-555130566706622465</t>
+          <t>t-729180420265279489</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-556107639625510912</t>
+          <t>t-729281192772542465</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C700" t="n">
         <v>1</v>
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-558523740888109056</t>
+          <t>t-775600763481436160</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-706439330877714432</t>
+          <t>t-870645957704265729</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-832028212376985600</t>
+          <t>t-870651401311014912</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-832064333504933888</t>
+          <t>t-932461262268661760</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,59 +9592,59 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-940363500475465728</t>
+          <t>t-932590015711993858</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-620194547256029184</t>
+          <t>t-932596112241786880</t>
         </is>
       </c>
       <c r="B706" t="n">
         <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-895185499131961344</t>
+          <t>t-932690981908074496</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-580384120221487104</t>
+          <t>t-932881287005835264</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-870645957704265729</t>
+          <t>t-584288298249531392</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,7 +9657,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-870651401311014912</t>
+          <t>t-674136729771577344</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-566151747232489472</t>
+          <t>t-720546793344270336</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-579242361768677376</t>
+          <t>t-753509017096364033</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,11 +9696,11 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-605944627380817920</t>
+          <t>t-802066289527095297</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-777104599379423233</t>
+          <t>t-802114052063252481</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,11 +9722,11 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-777106884058763264</t>
+          <t>t-843318937064366080</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,24 +9735,24 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-845628167855357953</t>
+          <t>t-998772384076320768</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-935268837662052353</t>
+          <t>t-998825906733920257</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C717" t="n">
         <v>1</v>
@@ -9761,11 +9761,11 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-935313787321585664</t>
+          <t>t-572370799971053568</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-935539265307660289</t>
+          <t>t-837085298324619265</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,33 +9787,33 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-935690311879282688</t>
+          <t>t-796860246736052224</t>
         </is>
       </c>
       <c r="B720" t="n">
         <v>1</v>
       </c>
       <c r="C720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-936855089326604288</t>
+          <t>t-820218394255339521</t>
         </is>
       </c>
       <c r="B721" t="n">
         <v>1</v>
       </c>
       <c r="C721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-883957999576002561</t>
+          <t>t-785264263749308416</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-935417453286326277</t>
+          <t>t-785310124797669377</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-837085298324619265</t>
+          <t>t-785316828025421824</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,20 +9852,20 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-685863458978443264</t>
+          <t>t-785325402981924866</t>
         </is>
       </c>
       <c r="B725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-796860246736052224</t>
+          <t>t-785347096031268864</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,20 +9878,20 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-877794875583934464</t>
+          <t>t-733197295139741697</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-691264325659422721</t>
+          <t>t-760724447745699841</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-691280497184362497</t>
+          <t>t-946177924222222336</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-745577469814538240</t>
+          <t>t-833912149630078976</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,39 +9930,26 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-964014223184375808</t>
+          <t>t-935334721793306624</t>
         </is>
       </c>
       <c r="B731" t="n">
         <v>1</v>
       </c>
       <c r="C731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-935334721793306624</t>
+          <t>t-935382314166693889</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>t-935382314166693889</t>
-        </is>
-      </c>
-      <c r="B733" t="n">
-        <v>1</v>
-      </c>
-      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
